--- a/biology/Zoologie/Argiope_versicolor/Argiope_versicolor.xlsx
+++ b/biology/Zoologie/Argiope_versicolor/Argiope_versicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope versicolor est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope versicolor est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre de la Chine à l'Indonésie et au Pakistan[1].
-Elle a été observée en Indonésie sur les îles de Java[2], Bornéo et Sumatra[3], en Malaisie[3], à Singapour[4], au Laos[5] et en Chine au Sichuan et au Yunnan[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre de la Chine à l'Indonésie et au Pakistan.
+Elle a été observée en Indonésie sur les îles de Java, Bornéo et Sumatra, en Malaisie, à Singapour, au Laos et en Chine au Sichuan et au Yunnan.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope versicolor est présente dans les forêts de montagne, les buissons, les arbres fruitiers et au bord des rizières[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope versicolor est présente dans les forêts de montagne, les buissons, les arbres fruitiers et au bord des rizières.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle mesure de 9 à 12 mm[3].
-Le thorax est densément couvert de poils argentés[8].
-L'abdomen a une forme pentagonale arrondie. Le dos de l'abdomen est orné de bandes alternées. La première bande est pourpre à carmin, les suivantes sont blanc argenté, jaune citron et noir. Puis la même alternance se répète[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle mesure de 9 à 12 mm.
+Le thorax est densément couvert de poils argentés.
+L'abdomen a une forme pentagonale arrondie. Le dos de l'abdomen est orné de bandes alternées. La première bande est pourpre à carmin, les suivantes sont blanc argenté, jaune citron et noir. Puis la même alternance se répète.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Espèce similaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope versicolor est similaire à Argiope pulchella[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope versicolor est similaire à Argiope pulchella.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Toile</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope versicolor construit une toile avec un stabilimentum[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope versicolor construit une toile avec un stabilimentum.
 </t>
         </is>
       </c>
@@ -669,9 +691,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope versicolor se nourrit de lépidoptères, d'orthoptères, de diptères et d'autres insectes ailés[7].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope versicolor se nourrit de lépidoptères, d'orthoptères, de diptères et d'autres insectes ailés.
 </t>
         </is>
       </c>
@@ -700,7 +724,9 @@
           <t>Argiope versicolor dans la culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Argiope versicolor figure sur un timbre de 2009 de la poste malaisienne d'une valeur faciale de 50 sen.
 </t>
@@ -731,7 +757,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Carl Ludwig Doleschall, 1859 : « Tweede Bijdrage tot de Kenntis der Arachniden van den Indischen Archipel. » Acta Societatis Scientiarum Indo-Neerlandicae, vol. 5, p. 1-60 (texte intégral).</t>
         </is>
